--- a/biology/Biochimie/Phosphofructokinase-1/Phosphofructokinase-1.xlsx
+++ b/biology/Biochimie/Phosphofructokinase-1/Phosphofructokinase-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La phosphofructokinase-1 (PFK-1) est une phosphotransférase qui catalyse la réaction :
@@ -514,18 +526,90 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phosphofructokinase-1 est un important point de régulation de la vitesse de la glycolyse chez les mammifères. Cette étape est sujette à une importante régulation non seulement parce qu'elle est fortement exergonique dans les conditions physiologiques, mais surtout parce que la phosphorylation du fructose 6-phosphate en fructose 1,6-bisphosphate dans laquelle intervient principalement la phosphofructokinase-1 est la première réaction irréversible spécifique à la glycolyse[2]. Ceci permet de contrôler à ce niveau la quantité d'oses — glucose, galactose, fructose — dégradés de cette façon. Avant l'action de la PFK-1, le glucose-6-phosphate conserve la possibilité d'être métabolisé par la voie des pentoses phosphates ou d'être converti en glucose-1-phosphate par la phosphoglucomutase pour entrer dans le processus de glycogénogenèse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phosphofructokinase-1 est un important point de régulation de la vitesse de la glycolyse chez les mammifères. Cette étape est sujette à une importante régulation non seulement parce qu'elle est fortement exergonique dans les conditions physiologiques, mais surtout parce que la phosphorylation du fructose 6-phosphate en fructose 1,6-bisphosphate dans laquelle intervient principalement la phosphofructokinase-1 est la première réaction irréversible spécifique à la glycolyse. Ceci permet de contrôler à ce niveau la quantité d'oses — glucose, galactose, fructose — dégradés de cette façon. Avant l'action de la PFK-1, le glucose-6-phosphate conserve la possibilité d'être métabolisé par la voie des pentoses phosphates ou d'être converti en glucose-1-phosphate par la phosphoglucomutase pour entrer dans le processus de glycogénogenèse.
 La régulation fine de la PFK-1 permet précisément d'éviter que la glycogénogenèse et la glycolyse soient activées en même temps. Il existe cependant des interconversions entre le fructose-6-phosphate et le fructose-1,6-bisphosphate. La fructose-1,6-bisphosphatase (FBPase) catalyse l'hydrolyse du fructose-1,6-bisphosphate en fructose-6-phosphate, c'est-à-dire pratiquement la réaction inverse de celle catalysée par la PFK-1. La FBPase reste faiblement active pendant la glycolyse tandis que la PFK-1 reste faiblement active pendant la glycogénogenèse, ce qui donne lieu à des interconversions cycliques de faible intensité entre le fructose-6-phosphate et le fructose-1,6-bisphosphate. Ce cycle permet d'amplifier les signaux métaboliques et de produire de la chaleur par hydrolyse nette d'une molécule d'ATP à chaque tour du cycle.
-Inhibition
-La PFK-1 est inhibée allostériquement par des taux élevés d'ATP, mais l'AMP lève l'action inhibitrice de l'ATP. De cette façon, l'activité de l'enzyme croît avec le ratio [AMP]/[ATP], ce qui permet de stimuler la glycolyse lorsque la charge énergétique de la cellule diminue. La PFK-A possède en fait deux sites de liaison à l'ATP, qui peut agir aussi bien comme substrat que comme inhibiteur allostérique.
-Un pH faible augmente l'effet inhibiteur de l'ATP. Le pH décroît lorsque le muscle fonctionne de manière anaérobie en produisant du lactate — bien que le lactate ne soit pas directement la cause de cette acidification[3]. Cette inhibition supplémentaire a pour effet de protéger le muscle des conséquences d'une acidification excessive.
-Le glucagon possède un effet inhibiteur indirect en activant la protéine kinase A, laquelle inhibe l'activité kinase d'une autre enzyme, la phosphofructokinase-2 (PFK-2) ; or la PFK-2 convertit le fructose-6-phosphate en fructose-2,6-bisphosphate, qui est un activateur puissant de la PFK-1 : le glucagon a ainsi pour effet de supprimer l'effet activateur indirect du fructose-6-phosphate par l'intermédiaire du fructose-2,6-bisphosphate[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phosphofructokinase-1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phosphofructokinase-1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Régulation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La PFK-1 est inhibée allostériquement par des taux élevés d'ATP, mais l'AMP lève l'action inhibitrice de l'ATP. De cette façon, l'activité de l'enzyme croît avec le ratio [AMP]/[ATP], ce qui permet de stimuler la glycolyse lorsque la charge énergétique de la cellule diminue. La PFK-A possède en fait deux sites de liaison à l'ATP, qui peut agir aussi bien comme substrat que comme inhibiteur allostérique.
+Un pH faible augmente l'effet inhibiteur de l'ATP. Le pH décroît lorsque le muscle fonctionne de manière anaérobie en produisant du lactate — bien que le lactate ne soit pas directement la cause de cette acidification. Cette inhibition supplémentaire a pour effet de protéger le muscle des conséquences d'une acidification excessive.
+Le glucagon possède un effet inhibiteur indirect en activant la protéine kinase A, laquelle inhibe l'activité kinase d'une autre enzyme, la phosphofructokinase-2 (PFK-2) ; or la PFK-2 convertit le fructose-6-phosphate en fructose-2,6-bisphosphate, qui est un activateur puissant de la PFK-1 : le glucagon a ainsi pour effet de supprimer l'effet activateur indirect du fructose-6-phosphate par l'intermédiaire du fructose-2,6-bisphosphate.
 Enfin, la PFK-1 est inhibée par le phosphoénolpyruvate et le citrate. Le premier est un produit de la glycolyse tandis que le second est un indicateur d'activité du cycle de Krebs.
-Activation
-L'AMP est un activateur allostérique de la phosphofructokinase-1, mais l'activateur le plus puissant reste le fructose-2,6-bisphosphate, qui dérive également du fructose-6-phosphate sous l'action de la phosphofructokinase-2, de sorte que le taux de fructose-2,6-bisphosphate croît avec celui de fructose-6-phosphate. La liaison du fructose-2,6-bisphosphate à l'enzyme accroît l'affinité de cette dernière pour le fructose-6-phosphate et réduit l'effet inhibiteur de l'ATP, ce qui accélère la glycolyse lorsque le glucose est abondant.
-La sérotonine active la PFK-1 dans la mesure où elle se lie à un récepteur sérotoninergique qui a pour effet de phosphoryler un résidu de tyrosine de l'enzyme ; cette phosphorylation redistribue l'enzyme dans les cellules de muscle squelettique, ce qui fait que la sérotonine a également une action sur la glycolyse[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phosphofructokinase-1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phosphofructokinase-1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Régulation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AMP est un activateur allostérique de la phosphofructokinase-1, mais l'activateur le plus puissant reste le fructose-2,6-bisphosphate, qui dérive également du fructose-6-phosphate sous l'action de la phosphofructokinase-2, de sorte que le taux de fructose-2,6-bisphosphate croît avec celui de fructose-6-phosphate. La liaison du fructose-2,6-bisphosphate à l'enzyme accroît l'affinité de cette dernière pour le fructose-6-phosphate et réduit l'effet inhibiteur de l'ATP, ce qui accélère la glycolyse lorsque le glucose est abondant.
+La sérotonine active la PFK-1 dans la mesure où elle se lie à un récepteur sérotoninergique qui a pour effet de phosphoryler un résidu de tyrosine de l'enzyme ; cette phosphorylation redistribue l'enzyme dans les cellules de muscle squelettique, ce qui fait que la sérotonine a également une action sur la glycolyse.
 </t>
         </is>
       </c>
